--- a/Adherence tutorial/Excel exercise/medication_adherence_exercise.xlsx
+++ b/Adherence tutorial/Excel exercise/medication_adherence_exercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbounthavong\Dropbox\Marks blog\R - Adherence\Example data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbounthavong\Documents\GitHub\R-tutorials\Adherence tutorial\Excel exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6304EB-6811-4B8B-B010-36806D3EA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCD54C9-7BF5-4ECF-8447-61548F144F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="1275" windowWidth="27750" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20715" yWindow="1620" windowWidth="27750" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="2" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -569,18 +569,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -617,19 +608,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,7 +1114,7 @@
   <dimension ref="C6:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1169,10 +1154,10 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="39">
+      <c r="C7" s="16">
         <v>1234</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>43795</v>
       </c>
       <c r="E7" s="16">
@@ -1184,11 +1169,11 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="H7" s="40">
-        <f>D7+G7</f>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7:H12" si="0">D7+G7</f>
         <v>43825</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="40">
         <f>D8-H7</f>
         <v>6</v>
       </c>
@@ -1197,7 +1182,7 @@
       <c r="C8" s="17">
         <v>1234</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <v>43831</v>
       </c>
       <c r="E8" s="17">
@@ -1209,11 +1194,11 @@
       <c r="G8" s="17">
         <v>30</v>
       </c>
-      <c r="H8" s="44">
-        <f>D8+G8</f>
+      <c r="H8" s="41">
+        <f t="shared" si="0"/>
         <v>43861</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="42">
         <f>D9-H8</f>
         <v>4</v>
       </c>
@@ -1222,7 +1207,7 @@
       <c r="C9" s="17">
         <v>1234</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>43865</v>
       </c>
       <c r="E9" s="17">
@@ -1234,12 +1219,12 @@
       <c r="G9" s="17">
         <v>30</v>
       </c>
-      <c r="H9" s="44">
-        <f>D9+G9</f>
+      <c r="H9" s="41">
+        <f t="shared" si="0"/>
         <v>43895</v>
       </c>
-      <c r="I9" s="45">
-        <f t="shared" ref="I9:I10" si="0">D10-H9</f>
+      <c r="I9" s="42">
+        <f t="shared" ref="I9:I10" si="1">D10-H9</f>
         <v>-15</v>
       </c>
     </row>
@@ -1247,7 +1232,7 @@
       <c r="C10" s="17">
         <v>1234</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>43880</v>
       </c>
       <c r="E10" s="17">
@@ -1259,12 +1244,12 @@
       <c r="G10" s="17">
         <v>30</v>
       </c>
-      <c r="H10" s="44">
-        <f>D10+G10</f>
+      <c r="H10" s="41">
+        <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="I10" s="45">
-        <f t="shared" si="0"/>
+      <c r="I10" s="42">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1272,7 +1257,7 @@
       <c r="C11" s="16">
         <v>1234</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <v>43915</v>
       </c>
       <c r="E11" s="16">
@@ -1284,11 +1269,11 @@
       <c r="G11" s="16">
         <v>30</v>
       </c>
-      <c r="H11" s="41">
-        <f>D11+G11</f>
+      <c r="H11" s="39">
+        <f t="shared" si="0"/>
         <v>43945</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="40">
         <f>D12-H11</f>
         <v>10</v>
       </c>
@@ -1309,11 +1294,11 @@
       <c r="G12" s="16">
         <v>30</v>
       </c>
-      <c r="H12" s="41">
-        <f>D12+G12</f>
+      <c r="H12" s="39">
+        <f t="shared" si="0"/>
         <v>43985</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="23" t="s">
@@ -1324,10 +1309,10 @@
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="44">
         <f>G8+G9+G10</f>
         <v>90</v>
       </c>
@@ -1345,10 +1330,10 @@
       </c>
     </row>
     <row r="18" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="46">
         <f>I16/I17</f>
         <v>1.0714285714285714</v>
       </c>
@@ -1359,10 +1344,10 @@
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="44">
         <f>G8+G9+G10</f>
         <v>90</v>
       </c>
@@ -1377,10 +1362,10 @@
       </c>
     </row>
     <row r="23" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="46">
         <f>I21/I22</f>
         <v>0.77586206896551724</v>
       </c>
@@ -1391,10 +1376,10 @@
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="44">
         <f>G8+G9+G10</f>
         <v>90</v>
       </c>
@@ -1409,10 +1394,10 @@
       </c>
     </row>
     <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="49">
+      <c r="H28" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="46">
         <f>IF(I26/I27&gt;1, 1,I26/I27)</f>
         <v>1</v>
       </c>
@@ -1423,10 +1408,10 @@
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="44">
         <f>G8+G9+G10</f>
         <v>90</v>
       </c>
@@ -1441,10 +1426,10 @@
       </c>
     </row>
     <row r="33" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="49">
+      <c r="H33" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="46">
         <f>IF(I31/I32&gt;1,1,I31/I32)</f>
         <v>0.77586206896551724</v>
       </c>
@@ -2518,146 +2503,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" style="52" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="52"/>
-    <col min="6" max="6" width="24.28515625" style="52" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" style="57"/>
-    <col min="13" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="2" width="2.85546875" style="49" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="49"/>
+    <col min="6" max="6" width="24.28515625" style="49" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="52"/>
+    <col min="13" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="48" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="51">
         <v>96</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="53">
         <v>0.89</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="53">
         <v>0.72</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="53">
         <v>0.83</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="53">
         <v>0.1</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="53">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="52">
         <v>99</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="54">
         <v>0.81</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="54">
         <v>0.43</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="54">
         <v>0.75</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="54">
         <v>0.19</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="54">
         <v>2.66</v>
       </c>
     </row>
     <row r="7" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="52">
         <v>96</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="54">
         <v>0.71</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="54">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="54">
         <v>0.83</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="54">
         <v>0.1</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="48">
         <v>99</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="55">
         <v>0.71</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="55">
         <v>0.27</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="55">
         <v>0.75</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="55">
         <v>0.19</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>50</v>
       </c>
     </row>
